--- a/KiCADFiles/myDAQExpansionBoard/bom/myDAQExpansionBoard.xlsx
+++ b/KiCADFiles/myDAQExpansionBoard/bom/myDAQExpansionBoard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josip\Documents\GitHub\myDAQ-Expansion-Board\KiCAD files\myDAQExpansionBoard\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josip\Documents\GitHub\myDAQ-Expansion-Board\KiCADFiles\myDAQExpansionBoard\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C70F2EC-0D56-4AC0-B46F-EF808C5B16A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5F1509-225A-4D78-B2BF-D910D2254039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>C_Radial_D10.0mm_H16.0mm_P5.00mm</t>
   </si>
@@ -31,12 +31,6 @@
     <t>74LS47</t>
   </si>
   <si>
-    <t>TerminalBlock_Phoenix_MKDS-1,5-2-5.08_1x02_P5.08mm_Horizontal</t>
-  </si>
-  <si>
-    <t>Screw_Terminal_01x02</t>
-  </si>
-  <si>
     <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>Plastični odstojnik M3, duljina 5mm</t>
   </si>
   <si>
-    <t>letva za 7segm display</t>
-  </si>
-  <si>
     <t>plastična m3 matica</t>
   </si>
   <si>
@@ -151,12 +142,6 @@
     <t>kupljeno</t>
   </si>
   <si>
-    <t>EG1271A</t>
-  </si>
-  <si>
-    <t>LDR, neki koji ima mat. Funkciju</t>
-  </si>
-  <si>
     <t>LED, crvena, 5mm THD</t>
   </si>
   <si>
@@ -211,13 +196,19 @@
     <t>Otpornik 1k, 0603 SMD</t>
   </si>
   <si>
-    <t>digikey/TME</t>
-  </si>
-  <si>
     <t>TME</t>
   </si>
   <si>
     <t>Podnožje profi, DIP-16_W7.62mm</t>
+  </si>
+  <si>
+    <t>digikey/TME/mouser</t>
+  </si>
+  <si>
+    <t>164-6219</t>
+  </si>
+  <si>
+    <t>164-6218</t>
   </si>
 </sst>
 </file>
@@ -394,7 +385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,12 +568,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,12 +844,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="8" applyBorder="1"/>
@@ -877,13 +861,10 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="42" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Isticanje1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1073,14 +1054,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E43" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E39" xr:uid="{0AAD7C5B-B542-4C2B-8D6D-20947F7DCB81}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{97E67440-64E5-475A-862A-DE53CD4198B3}" name="#" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{2A18092F-2E40-4862-BED9-469CB0647BD6}" name="Naziv" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{71BCE944-C673-40E8-A62D-1576F5D0AEBB}" name="Kućište" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{FC793558-D69D-4416-AA9A-A219877FD2A2}" name="Količina" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{0912EF61-DC9F-4416-B786-74DDF1505FBD}" name="digikey/TME" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{0912EF61-DC9F-4416-B786-74DDF1505FBD}" name="digikey/TME/mouser" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1375,7 +1356,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1383,17 +1364,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.85546875" customWidth="1"/>
@@ -1403,20 +1384,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>63</v>
+      <c r="E1" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1424,13 +1405,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1439,13 +1420,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -1454,13 +1435,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -1469,13 +1450,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -1484,13 +1465,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -1499,13 +1480,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -1514,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -1529,16 +1510,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>20</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1546,13 +1527,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -1561,34 +1542,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11"/>
+        <v>200</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>200</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1596,13 +1577,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1611,13 +1592,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1626,13 +1607,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1641,49 +1622,49 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="9">
-        <v>2</v>
-      </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="8">
+        <v>40</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -1694,344 +1675,303 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1">
+        <v>20</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
+        <v>40</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
-        <v>2</v>
-      </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>32</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8">
+        <v>20</v>
+      </c>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>39</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="G32" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>35</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12">
         <v>1</v>
       </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="E33" s="13"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>36</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>33</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+      <c r="C34" s="12"/>
+      <c r="D34" s="12">
+        <v>4</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>40</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>41</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>42</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16">
-        <v>1</v>
-      </c>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
-        <v>35</v>
-      </c>
-      <c r="B35" s="16" t="s">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>43</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
         <v>44</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
-        <v>39</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14"/>
-      <c r="G36" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
-        <v>35</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13">
-        <v>1</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="G37" s="18"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
-        <v>36</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13">
-        <v>4</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
-        <v>40</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14"/>
-      <c r="G39" s="18"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
-        <v>41</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="14"/>
-      <c r="G40" s="18"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
-        <v>42</v>
-      </c>
-      <c r="B41" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14"/>
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
-        <v>43</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14"/>
-      <c r="G42" s="18"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
-        <v>44</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14"/>
-      <c r="G43" s="18"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
+      <c r="G39" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="G32:G39"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E19" r:id="rId1" xr:uid="{3BB63272-6E7C-4BFF-A6C9-0849E00B3848}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{9DB2B857-9B84-4B84-9073-9DAFAED0E6A6}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{BD9057DE-875C-4F84-AE33-B7C1DCEC87EE}"/>
+    <hyperlink ref="E12" r:id="rId4" xr:uid="{64DB7917-DCB7-4264-A07C-D77B00D6D6EA}"/>
+    <hyperlink ref="E16" r:id="rId5" xr:uid="{DF7E5BA1-EF34-46CA-8340-110BE8AA7EEE}"/>
+    <hyperlink ref="E25" r:id="rId6" xr:uid="{AA30B42D-E759-442F-A6F6-EF27E852186C}"/>
+    <hyperlink ref="E22" r:id="rId7" xr:uid="{EC25B703-3CF3-4F60-8ECD-5C05F873A577}"/>
+    <hyperlink ref="E23" r:id="rId8" xr:uid="{5BD47606-6B40-4A2D-82E6-6AE18DF9524F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>